--- a/biology/Zoologie/Heterotoma_planicornis/Heterotoma_planicornis.xlsx
+++ b/biology/Zoologie/Heterotoma_planicornis/Heterotoma_planicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heterotoma planicornis est une espèce de punaises de la famille des Miridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heterotoma planicornis est une espèce de punaises de la famille des Miridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une longueur de 4,5 à 5,5 millimètres, cette espèce possède un corps mince et noir parsemé de soies grises. Ses pattes sont verdâtres et le deuxième article antennaire est aplati et large[2]. La combinaison de ces critères est caractéristique de cette espèce et permet d'éviter toute confusion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une longueur de 4,5 à 5,5 millimètres, cette espèce possède un corps mince et noir parsemé de soies grises. Ses pattes sont verdâtres et le deuxième article antennaire est aplati et large. La combinaison de ces critères est caractéristique de cette espèce et permet d'éviter toute confusion.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa distribution comporte une large partie de l'Europe et on la trouve également en Amérique du Nord et en Afrique du Nord.
-C'est une espèce prédatrice de petits arthropodes qui complète parfois son régime en ponctionnant de la sève. Les œufs qui ont passé l'hiver éclosent en mai, les adultes sont ensuite observables de juin à octobre[2].
+C'est une espèce prédatrice de petits arthropodes qui complète parfois son régime en ponctionnant de la sève. Les œufs qui ont passé l'hiver éclosent en mai, les adultes sont ensuite observables de juin à octobre.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterotoma planicornis (Pallas, 1772)[3].
-L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex planicornis Pallas, 1772[3].
-Heterotoma planicornis a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heterotoma planicornis (Pallas, 1772).
+L'espèce a été initialement classée dans le genre Cimex sous le protonyme Cimex planicornis Pallas, 1772.
+Heterotoma planicornis a pour synonymes :
 Acanthia crassicornis Fabricius, 1794
 Cimex crassipennis Turton, 1802
 Cimex planicornis Pallas, 1772
